--- a/data/trans_orig/P43E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C039D25-9DD4-4495-9BEC-D295FFC4BAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7EADBD6-CE6B-49EE-9942-FB65379CA2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7455BFC2-5C78-45E1-BC7B-8D4B6A28E12F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95B6AA0A-3AC2-425F-AAAA-37242F9988C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -79,10 +79,10 @@
     <t>18,07%</t>
   </si>
   <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>81,93%</t>
   </si>
   <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>16,5%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -127,19 +127,19 @@
     <t>24,79%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>75,21%</t>
   </si>
   <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -148,13 +148,19 @@
     <t>25,12%</t>
   </si>
   <si>
-    <t>29,64%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>70,36%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -163,37 +169,31 @@
     <t>23,64%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>21,17%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>78,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -205,109 +205,109 @@
     <t>12,17%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>87,83%</t>
   </si>
   <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
   </si>
   <si>
     <t>81,05%</t>
   </si>
   <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -316,109 +316,109 @@
     <t>9,12%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>14,2%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>85,8%</t>
   </si>
   <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>72,82%</t>
   </si>
   <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C19F63-A4F2-4D6A-A212-1848AB663AD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6094D7FA-80CB-48F3-88B0-9D2B85AE5A24}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1417,10 +1417,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>111</v>
@@ -1432,10 +1432,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1463,13 +1463,13 @@
         <v>392529</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>360</v>
@@ -1478,13 +1478,13 @@
         <v>392529</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1538,7 +1538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1563,13 +1563,13 @@
         <v>152151</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -1578,13 +1578,13 @@
         <v>152151</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,13 +1612,13 @@
         <v>491370</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>469</v>
@@ -1627,13 +1627,13 @@
         <v>491370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,13 +1712,13 @@
         <v>517415</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M19" s="7">
         <v>461</v>
@@ -1727,13 +1727,13 @@
         <v>517415</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,10 +1761,10 @@
         <v>1731609</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>51</v>
@@ -1776,10 +1776,10 @@
         <v>1731609</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>51</v>
@@ -1857,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CE1E8B-14AB-4A41-8C35-3B55475F07A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD847A6-D652-41D0-907F-4905B382076D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2565,7 +2565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2884,7 +2884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C378DA34-1831-4A7C-8803-27A40E2FB47C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038B00A4-157E-4357-846D-D83E99E63241}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3592,7 +3592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>

--- a/data/trans_orig/P43E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7EADBD6-CE6B-49EE-9942-FB65379CA2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9E9BBA-EFED-41AF-8C71-65FC439EF90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95B6AA0A-3AC2-425F-AAAA-37242F9988C3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B33751D-DD12-4DA3-80E5-269D8A60B1F5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="129">
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2012 (Tasa respuesta: 31,77%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -79,10 +79,10 @@
     <t>18,07%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,76 +91,76 @@
     <t>81,93%</t>
   </si>
   <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>75,21%</t>
   </si>
   <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>25,12%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -169,145 +169,151 @@
     <t>23,64%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>21,17%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>78,83%</t>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2015 (Tasa respuesta: 31,05%)</t>
+    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2016 (Tasa respuesta: 31,05%)</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
   </si>
   <si>
     <t>87,83%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>81,05%</t>
   </si>
   <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -830,7 +836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6094D7FA-80CB-48F3-88B0-9D2B85AE5A24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C483CC1-2353-4D85-B679-7E20443FA5F5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1718,7 +1724,7 @@
         <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>461</v>
@@ -1733,7 +1739,7 @@
         <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1767,13 @@
         <v>1731609</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>1606</v>
@@ -1776,13 +1782,13 @@
         <v>1731609</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,7 +1842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1857,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD847A6-D652-41D0-907F-4905B382076D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAD02F3-D48D-408D-AA0C-395EC2E15E94}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1874,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1994,13 +2000,13 @@
         <v>8003</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2009,13 +2015,13 @@
         <v>8003</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2043,13 +2049,13 @@
         <v>57773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -2058,13 +2064,13 @@
         <v>57773</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,13 +2149,13 @@
         <v>32252</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -2158,13 +2164,13 @@
         <v>32252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2198,13 @@
         <v>250763</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7">
         <v>249</v>
@@ -2207,13 +2213,13 @@
         <v>250763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2298,13 @@
         <v>96417</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -2307,13 +2313,13 @@
         <v>96417</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2347,13 @@
         <v>534894</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>504</v>
@@ -2356,13 +2362,13 @@
         <v>534894</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2447,13 @@
         <v>87647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -2456,13 +2462,13 @@
         <v>87647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2496,13 @@
         <v>406718</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>384</v>
@@ -2505,13 +2511,13 @@
         <v>406718</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2596,13 @@
         <v>128720</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -2605,13 +2611,13 @@
         <v>128720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2645,13 @@
         <v>550488</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>514</v>
@@ -2654,13 +2660,13 @@
         <v>550488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,13 +2745,13 @@
         <v>353039</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>329</v>
@@ -2754,13 +2760,13 @@
         <v>353039</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,13 +2794,13 @@
         <v>1800635</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>1711</v>
@@ -2803,13 +2809,13 @@
         <v>1800635</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,7 +2869,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +2890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038B00A4-157E-4357-846D-D83E99E63241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F90B2-A037-44A3-8CFC-0344863C1096}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2901,7 +2907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3021,13 +3027,13 @@
         <v>4892</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3036,13 +3042,13 @@
         <v>4892</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3076,13 @@
         <v>48780</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -3085,13 +3091,13 @@
         <v>48780</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3176,13 @@
         <v>32509</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3185,13 +3191,13 @@
         <v>32509</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3225,13 @@
         <v>196443</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>346</v>
@@ -3234,13 +3240,13 @@
         <v>196443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,13 +3325,13 @@
         <v>85217</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -3334,13 +3340,13 @@
         <v>85217</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3374,13 @@
         <v>327904</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>513</v>
@@ -3383,13 +3389,13 @@
         <v>327904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3474,13 @@
         <v>112665</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3483,13 +3489,13 @@
         <v>112665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,13 +3523,13 @@
         <v>243885</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>351</v>
@@ -3532,13 +3538,13 @@
         <v>243885</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,13 +3623,13 @@
         <v>152274</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>219</v>
@@ -3632,13 +3638,13 @@
         <v>152274</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3672,13 @@
         <v>408065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
@@ -3681,13 +3687,13 @@
         <v>408065</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,13 +3772,13 @@
         <v>387556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>560</v>
@@ -3781,13 +3787,13 @@
         <v>387556</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3821,13 @@
         <v>1225078</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>1858</v>
@@ -3830,13 +3836,13 @@
         <v>1225078</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3890,7 +3896,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9E9BBA-EFED-41AF-8C71-65FC439EF90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39E857E-6446-4F1C-908F-0955E5037071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B33751D-DD12-4DA3-80E5-269D8A60B1F5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D02B4C4C-CF33-4D5E-AB09-1E81386A0E12}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="127">
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2012 (Tasa respuesta: 31,77%)</t>
   </si>
@@ -79,10 +79,10 @@
     <t>18,07%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>81,93%</t>
   </si>
   <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>16,5%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -127,19 +127,19 @@
     <t>24,79%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>75,21%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -148,19 +148,13 @@
     <t>25,12%</t>
   </si>
   <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
+    <t>29,64%</t>
   </si>
   <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
+    <t>70,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -169,37 +163,37 @@
     <t>23,64%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>76,36%</t>
   </si>
   <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -211,109 +205,109 @@
     <t>12,17%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
   </si>
   <si>
     <t>87,83%</t>
   </si>
   <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>11,4%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>88,6%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>84,73%</t>
   </si>
   <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
   </si>
   <si>
     <t>81,05%</t>
   </si>
   <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -322,109 +316,109 @@
     <t>9,12%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>90,88%</t>
   </si>
   <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>14,2%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>85,8%</t>
   </si>
   <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>27,18%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>72,82%</t>
   </si>
   <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
   </si>
 </sst>
 </file>
@@ -836,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C483CC1-2353-4D85-B679-7E20443FA5F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9312AB-CA24-4EB7-8E21-E21E4BC39F76}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1423,10 +1417,10 @@
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>111</v>
@@ -1438,10 +1432,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1469,13 +1463,13 @@
         <v>392529</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M14" s="7">
         <v>360</v>
@@ -1484,13 +1478,13 @@
         <v>392529</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1544,7 +1538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1569,13 +1563,13 @@
         <v>152151</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -1584,13 +1578,13 @@
         <v>152151</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,13 +1612,13 @@
         <v>491370</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M17" s="7">
         <v>469</v>
@@ -1633,13 +1627,13 @@
         <v>491370</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1712,13 @@
         <v>517415</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>461</v>
@@ -1733,13 +1727,13 @@
         <v>517415</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1761,13 @@
         <v>1731609</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M20" s="7">
         <v>1606</v>
@@ -1782,13 +1776,13 @@
         <v>1731609</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,7 +1836,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAD02F3-D48D-408D-AA0C-395EC2E15E94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F92485-CDB9-43C2-9747-772601B3ECAC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1880,7 +1874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2000,13 +1994,13 @@
         <v>8003</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2015,13 +2009,13 @@
         <v>8003</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,13 +2043,13 @@
         <v>57773</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M5" s="7">
         <v>60</v>
@@ -2064,13 +2058,13 @@
         <v>57773</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2143,13 @@
         <v>32252</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -2164,13 +2158,13 @@
         <v>32252</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2192,13 @@
         <v>250763</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M8" s="7">
         <v>249</v>
@@ -2213,13 +2207,13 @@
         <v>250763</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,13 +2292,13 @@
         <v>96417</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -2313,13 +2307,13 @@
         <v>96417</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2341,13 @@
         <v>534894</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>504</v>
@@ -2362,13 +2356,13 @@
         <v>534894</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2441,13 @@
         <v>87647</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M13" s="7">
         <v>84</v>
@@ -2462,13 +2456,13 @@
         <v>87647</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2490,13 @@
         <v>406718</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>384</v>
@@ -2511,13 +2505,13 @@
         <v>406718</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,7 +2565,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2596,13 +2590,13 @@
         <v>128720</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -2611,13 +2605,13 @@
         <v>128720</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2639,13 @@
         <v>550488</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>514</v>
@@ -2660,13 +2654,13 @@
         <v>550488</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2739,13 @@
         <v>353039</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>329</v>
@@ -2760,13 +2754,13 @@
         <v>353039</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2788,13 @@
         <v>1800635</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M20" s="7">
         <v>1711</v>
@@ -2809,13 +2803,13 @@
         <v>1800635</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,7 +2863,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2890,7 +2884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F90B2-A037-44A3-8CFC-0344863C1096}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0778063E-1066-443B-B79B-B4E6196CBF8F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2907,7 +2901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3027,13 +3021,13 @@
         <v>4892</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3042,13 +3036,13 @@
         <v>4892</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3070,13 @@
         <v>48780</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>90</v>
@@ -3091,13 +3085,13 @@
         <v>48780</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3170,13 @@
         <v>32509</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3191,13 +3185,13 @@
         <v>32509</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3219,13 @@
         <v>196443</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>346</v>
@@ -3240,13 +3234,13 @@
         <v>196443</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3319,13 @@
         <v>85217</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>128</v>
@@ -3340,13 +3334,13 @@
         <v>85217</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3368,13 @@
         <v>327904</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>513</v>
@@ -3389,13 +3383,13 @@
         <v>327904</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3468,13 @@
         <v>112665</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>149</v>
@@ -3489,13 +3483,13 @@
         <v>112665</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3517,13 @@
         <v>243885</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>351</v>
@@ -3538,13 +3532,13 @@
         <v>243885</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,7 +3592,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3623,13 +3617,13 @@
         <v>152274</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>219</v>
@@ -3638,13 +3632,13 @@
         <v>152274</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3666,13 @@
         <v>408065</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
@@ -3687,13 +3681,13 @@
         <v>408065</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3766,13 @@
         <v>387556</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>560</v>
@@ -3787,13 +3781,13 @@
         <v>387556</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3815,13 @@
         <v>1225078</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>1858</v>
@@ -3836,13 +3830,13 @@
         <v>1225078</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,7 +3890,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P43E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A39E857E-6446-4F1C-908F-0955E5037071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{235D0430-AD63-4F4B-94A1-920AAFCC4D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D02B4C4C-CF33-4D5E-AB09-1E81386A0E12}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7E53485A-4D5C-49EA-8B8D-28FD74ABBD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="110">
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2012 (Tasa respuesta: 31,77%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -76,87 +76,72 @@
     <t>—%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>25,12%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>83,5%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>78,98%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>74,88%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
@@ -202,40 +187,22 @@
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2016 (Tasa respuesta: 31,05%)</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>15,27%</t>
@@ -313,112 +280,94 @@
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
   </si>
   <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
 </sst>
 </file>
@@ -830,8 +779,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9312AB-CA24-4EB7-8E21-E21E4BC39F76}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535BB997-40D7-4A94-84F3-F399C6C92E46}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -961,10 +910,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I4" s="7">
-        <v>11342</v>
+        <v>71583</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -976,10 +925,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="N4" s="7">
-        <v>11342</v>
+        <v>71583</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1010,10 +959,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="I5" s="7">
-        <v>51412</v>
+        <v>356329</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1025,10 +974,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="N5" s="7">
-        <v>51412</v>
+        <v>356329</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1059,10 +1008,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>55</v>
+        <v>395</v>
       </c>
       <c r="I6" s="7">
-        <v>62754</v>
+        <v>427912</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1074,10 +1023,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>55</v>
+        <v>395</v>
       </c>
       <c r="N6" s="7">
-        <v>62754</v>
+        <v>427912</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1110,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="I7" s="7">
-        <v>60241</v>
+        <v>161991</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1125,10 +1074,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="N7" s="7">
-        <v>60241</v>
+        <v>161991</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>21</v>
@@ -1159,10 +1108,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="I8" s="7">
-        <v>304918</v>
+        <v>491381</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -1174,10 +1123,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>285</v>
+        <v>447</v>
       </c>
       <c r="N8" s="7">
-        <v>304918</v>
+        <v>491381</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1208,10 +1157,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>340</v>
+        <v>591</v>
       </c>
       <c r="I9" s="7">
-        <v>365159</v>
+        <v>653372</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1223,10 +1172,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>340</v>
+        <v>591</v>
       </c>
       <c r="N9" s="7">
-        <v>365159</v>
+        <v>653372</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1259,10 +1208,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="I10" s="7">
-        <v>161991</v>
+        <v>131691</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
@@ -1274,10 +1223,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="N10" s="7">
-        <v>161991</v>
+        <v>131691</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
@@ -1308,10 +1257,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="I11" s="7">
-        <v>491381</v>
+        <v>392529</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -1323,10 +1272,10 @@
         <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>447</v>
+        <v>360</v>
       </c>
       <c r="N11" s="7">
-        <v>491381</v>
+        <v>392529</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>31</v>
@@ -1357,10 +1306,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>591</v>
+        <v>471</v>
       </c>
       <c r="I12" s="7">
-        <v>653372</v>
+        <v>524220</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1372,10 +1321,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>591</v>
+        <v>471</v>
       </c>
       <c r="N12" s="7">
-        <v>653372</v>
+        <v>524220</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1408,34 +1357,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I13" s="7">
-        <v>131691</v>
+        <v>152151</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="N13" s="7">
-        <v>131691</v>
+        <v>152151</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1457,34 +1406,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>360</v>
+        <v>469</v>
       </c>
       <c r="I14" s="7">
-        <v>392529</v>
+        <v>491370</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="7">
+        <v>469</v>
+      </c>
+      <c r="N14" s="7">
+        <v>491370</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="7">
-        <v>360</v>
-      </c>
-      <c r="N14" s="7">
-        <v>392529</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,10 +1455,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>471</v>
+        <v>610</v>
       </c>
       <c r="I15" s="7">
-        <v>524220</v>
+        <v>643521</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1521,10 +1470,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>471</v>
+        <v>610</v>
       </c>
       <c r="N15" s="7">
-        <v>524220</v>
+        <v>643521</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1538,7 +1487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1557,34 +1506,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>141</v>
+        <v>461</v>
       </c>
       <c r="I16" s="7">
-        <v>152151</v>
+        <v>517415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="7">
+        <v>461</v>
+      </c>
+      <c r="N16" s="7">
+        <v>517415</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="7">
-        <v>141</v>
-      </c>
-      <c r="N16" s="7">
-        <v>152151</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,34 +1555,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>469</v>
+        <v>1606</v>
       </c>
       <c r="I17" s="7">
-        <v>491370</v>
+        <v>1731610</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1606</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1731610</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="7">
-        <v>469</v>
-      </c>
-      <c r="N17" s="7">
-        <v>491370</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1655,10 +1604,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>610</v>
+        <v>2067</v>
       </c>
       <c r="I18" s="7">
-        <v>643521</v>
+        <v>2249025</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1670,10 +1619,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>610</v>
+        <v>2067</v>
       </c>
       <c r="N18" s="7">
-        <v>643521</v>
+        <v>2249025</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1686,165 +1635,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>461</v>
-      </c>
-      <c r="I19" s="7">
-        <v>517415</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M19" s="7">
-        <v>461</v>
-      </c>
-      <c r="N19" s="7">
-        <v>517415</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1606</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1731609</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1606</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1731609</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2067</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2249024</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2067</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2249024</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1857,8 +1656,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F92485-CDB9-43C2-9747-772601B3ECAC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040A1529-0790-4C20-952C-9BFF779BBEA3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1874,7 +1673,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1988,34 +1787,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>8003</v>
+        <v>40255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>8003</v>
+        <v>40255</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2037,34 +1836,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="I5" s="7">
-        <v>57773</v>
+        <v>308536</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M5" s="7">
-        <v>60</v>
+        <v>309</v>
       </c>
       <c r="N5" s="7">
-        <v>57773</v>
+        <v>308536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,10 +1885,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="I6" s="7">
-        <v>65776</v>
+        <v>348791</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2101,10 +1900,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>68</v>
+        <v>348</v>
       </c>
       <c r="N6" s="7">
-        <v>65776</v>
+        <v>348791</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2137,34 +1936,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="I7" s="7">
-        <v>32252</v>
+        <v>96417</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="N7" s="7">
-        <v>32252</v>
+        <v>96417</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,34 +1985,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>249</v>
+        <v>504</v>
       </c>
       <c r="I8" s="7">
-        <v>250763</v>
+        <v>534894</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
-        <v>249</v>
+        <v>504</v>
       </c>
       <c r="N8" s="7">
-        <v>250763</v>
+        <v>534894</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,10 +2034,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>280</v>
+        <v>596</v>
       </c>
       <c r="I9" s="7">
-        <v>283015</v>
+        <v>631311</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2250,10 +2049,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>280</v>
+        <v>596</v>
       </c>
       <c r="N9" s="7">
-        <v>283015</v>
+        <v>631311</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2286,34 +2085,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I10" s="7">
-        <v>96417</v>
+        <v>87647</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N10" s="7">
-        <v>96417</v>
+        <v>87647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,34 +2134,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>504</v>
+        <v>384</v>
       </c>
       <c r="I11" s="7">
-        <v>534894</v>
+        <v>406718</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>504</v>
+        <v>384</v>
       </c>
       <c r="N11" s="7">
-        <v>534894</v>
+        <v>406718</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,10 +2183,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>596</v>
+        <v>468</v>
       </c>
       <c r="I12" s="7">
-        <v>631311</v>
+        <v>494365</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2399,10 +2198,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>596</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>631311</v>
+        <v>494365</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2435,34 +2234,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="I13" s="7">
-        <v>87647</v>
+        <v>128720</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="N13" s="7">
-        <v>87647</v>
+        <v>128720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,34 +2283,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>384</v>
+        <v>514</v>
       </c>
       <c r="I14" s="7">
-        <v>406718</v>
+        <v>550488</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>384</v>
+        <v>514</v>
       </c>
       <c r="N14" s="7">
-        <v>406718</v>
+        <v>550488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,10 +2332,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>468</v>
+        <v>628</v>
       </c>
       <c r="I15" s="7">
-        <v>494365</v>
+        <v>679208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2548,10 +2347,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>628</v>
       </c>
       <c r="N15" s="7">
-        <v>494365</v>
+        <v>679208</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2565,7 +2364,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2584,34 +2383,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>329</v>
       </c>
       <c r="I16" s="7">
-        <v>128720</v>
+        <v>353039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
-        <v>114</v>
+        <v>329</v>
       </c>
       <c r="N16" s="7">
-        <v>128720</v>
+        <v>353039</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,34 +2432,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>514</v>
+        <v>1711</v>
       </c>
       <c r="I17" s="7">
-        <v>550488</v>
+        <v>1800635</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>514</v>
+        <v>1711</v>
       </c>
       <c r="N17" s="7">
-        <v>550488</v>
+        <v>1800635</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,10 +2481,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>628</v>
+        <v>2040</v>
       </c>
       <c r="I18" s="7">
-        <v>679208</v>
+        <v>2153674</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2697,10 +2496,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>628</v>
+        <v>2040</v>
       </c>
       <c r="N18" s="7">
-        <v>679208</v>
+        <v>2153674</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2713,165 +2512,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>329</v>
-      </c>
-      <c r="I19" s="7">
-        <v>353039</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="7">
-        <v>329</v>
-      </c>
-      <c r="N19" s="7">
-        <v>353039</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1711</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1800635</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1711</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1800635</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2040</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2153674</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2040</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2153674</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2884,8 +2533,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0778063E-1066-443B-B79B-B4E6196CBF8F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A480CB6A-79FB-4FB9-B906-3154477D5241}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2901,7 +2550,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3015,34 +2664,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I4" s="7">
-        <v>4892</v>
+        <v>35712</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>4892</v>
+        <v>35712</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,34 +2713,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>90</v>
+        <v>436</v>
       </c>
       <c r="I5" s="7">
-        <v>48780</v>
+        <v>231721</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
-        <v>90</v>
+        <v>436</v>
       </c>
       <c r="N5" s="7">
-        <v>48780</v>
+        <v>231721</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,10 +2762,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I6" s="7">
-        <v>53672</v>
+        <v>267433</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3128,10 +2777,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N6" s="7">
-        <v>53672</v>
+        <v>267433</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3164,34 +2813,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="I7" s="7">
-        <v>32509</v>
+        <v>79033</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="N7" s="7">
-        <v>32509</v>
+        <v>79033</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,34 +2862,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>346</v>
+        <v>513</v>
       </c>
       <c r="I8" s="7">
-        <v>196443</v>
+        <v>301395</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
-        <v>346</v>
+        <v>513</v>
       </c>
       <c r="N8" s="7">
-        <v>196443</v>
+        <v>301395</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,10 +2911,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>400</v>
+        <v>641</v>
       </c>
       <c r="I9" s="7">
-        <v>228952</v>
+        <v>380428</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3277,10 +2926,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>400</v>
+        <v>641</v>
       </c>
       <c r="N9" s="7">
-        <v>228952</v>
+        <v>380428</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3313,34 +2962,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="I10" s="7">
-        <v>85217</v>
+        <v>104131</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="N10" s="7">
-        <v>85217</v>
+        <v>104131</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,34 +3011,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>513</v>
+        <v>351</v>
       </c>
       <c r="I11" s="7">
-        <v>327904</v>
+        <v>249805</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
-        <v>513</v>
+        <v>351</v>
       </c>
       <c r="N11" s="7">
-        <v>327904</v>
+        <v>249805</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,10 +3060,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>641</v>
+        <v>500</v>
       </c>
       <c r="I12" s="7">
-        <v>413121</v>
+        <v>353936</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3426,10 +3075,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>641</v>
+        <v>500</v>
       </c>
       <c r="N12" s="7">
-        <v>413121</v>
+        <v>353936</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3462,34 +3111,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="I13" s="7">
-        <v>112665</v>
+        <v>141134</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="N13" s="7">
-        <v>112665</v>
+        <v>141134</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,34 +3160,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>351</v>
+        <v>558</v>
       </c>
       <c r="I14" s="7">
-        <v>243885</v>
+        <v>427821</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>351</v>
+        <v>558</v>
       </c>
       <c r="N14" s="7">
-        <v>243885</v>
+        <v>427821</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,10 +3209,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="I15" s="7">
-        <v>356550</v>
+        <v>568955</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3575,10 +3224,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="N15" s="7">
-        <v>356550</v>
+        <v>568955</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3592,7 +3241,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3611,34 +3260,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>219</v>
+        <v>560</v>
       </c>
       <c r="I16" s="7">
-        <v>152274</v>
+        <v>360010</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
-        <v>219</v>
+        <v>560</v>
       </c>
       <c r="N16" s="7">
-        <v>152274</v>
+        <v>360010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,34 +3309,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>558</v>
+        <v>1858</v>
       </c>
       <c r="I17" s="7">
-        <v>408065</v>
+        <v>1210742</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>558</v>
+        <v>1858</v>
       </c>
       <c r="N17" s="7">
-        <v>408065</v>
+        <v>1210742</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,10 +3358,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>777</v>
+        <v>2418</v>
       </c>
       <c r="I18" s="7">
-        <v>560339</v>
+        <v>1570752</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3724,10 +3373,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>777</v>
+        <v>2418</v>
       </c>
       <c r="N18" s="7">
-        <v>560339</v>
+        <v>1570752</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3740,165 +3389,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>560</v>
-      </c>
-      <c r="I19" s="7">
-        <v>387556</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M19" s="7">
-        <v>560</v>
-      </c>
-      <c r="N19" s="7">
-        <v>387556</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1858</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1225078</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1858</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1225078</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2418</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1612634</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2418</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1612634</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>52</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
